--- a/aal_extended.xlsx
+++ b/aal_extended.xlsx
@@ -780,7 +780,7 @@
   <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
